--- a/data-raw/get-sf-colnames.xlsx
+++ b/data-raw/get-sf-colnames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcmo-my.sharepoint.com/personal/eliot_monaco_kcmo_org/Documents/Documents/kcData/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_5EA43E3BAB66376A6CF76CA12E5CA1EE2C472A60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387F7C93-3A9A-4897-9B89-3C7047B6C44E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_470AF6F6D4F392F076989C6DFA382C9E7D47EF38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEDFCB4B-B876-439F-85BA-FA335EF2352F}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="0" windowWidth="21600" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="125">
+  <si>
+    <t>sf_city_2015</t>
+  </si>
+  <si>
+    <t>sf_city_2016</t>
+  </si>
+  <si>
+    <t>sf_city_2017</t>
+  </si>
   <si>
     <t>sf_city_2018</t>
   </si>
@@ -102,6 +111,15 @@
     <t>geometry</t>
   </si>
   <si>
+    <t>sf_county_2015</t>
+  </si>
+  <si>
+    <t>sf_county_2016</t>
+  </si>
+  <si>
+    <t>sf_county_2017</t>
+  </si>
+  <si>
     <t>sf_county_2018</t>
   </si>
   <si>
@@ -147,6 +165,15 @@
     <t>kc_area_pct</t>
   </si>
   <si>
+    <t>sf_tract_2015</t>
+  </si>
+  <si>
+    <t>sf_tract_2016</t>
+  </si>
+  <si>
+    <t>sf_tract_2017</t>
+  </si>
+  <si>
     <t>sf_tract_2018</t>
   </si>
   <si>
@@ -171,6 +198,15 @@
     <t>TRACTCE</t>
   </si>
   <si>
+    <t>sf_blockgroup_2015</t>
+  </si>
+  <si>
+    <t>sf_blockgroup_2016</t>
+  </si>
+  <si>
+    <t>sf_blockgroup_2017</t>
+  </si>
+  <si>
     <t>sf_blockgroup_2018</t>
   </si>
   <si>
@@ -195,6 +231,15 @@
     <t>BLKGRPCE</t>
   </si>
   <si>
+    <t>sf_block_2015</t>
+  </si>
+  <si>
+    <t>sf_block_2016</t>
+  </si>
+  <si>
+    <t>sf_block_2017</t>
+  </si>
+  <si>
     <t>sf_block_2018</t>
   </si>
   <si>
@@ -313,6 +358,15 @@
   </si>
   <si>
     <t>POP20</t>
+  </si>
+  <si>
+    <t>sf_zcta_2015</t>
+  </si>
+  <si>
+    <t>sf_zcta_2016</t>
+  </si>
+  <si>
+    <t>sf_zcta_2017</t>
   </si>
   <si>
     <t>sf_zcta_2018</t>
@@ -352,8 +406,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -381,8 +443,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,429 +780,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1151,527 +1376,725 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1683,412 +2106,565 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2100,412 +2676,565 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2517,519 +3246,717 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3041,343 +3968,469 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G9" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H9" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I9" t="s">
         <v>104</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G10" t="s">
         <v>106</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H10" t="s">
         <v>106</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I10" t="s">
         <v>106</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
